--- a/seed/tests/data/building-performance-standards-sample-2027.xlsx
+++ b/seed/tests/data/building-performance-standards-sample-2027.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achapin/seed/seed/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1013B1-DB96-1443-AA96-06859532010C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6519754-A30A-F847-8989-341662A747DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{ABA70866-58E3-E741-9E6E-8CBE8BD4F008}"/>
   </bookViews>
@@ -282,7 +282,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4367F287-F053-B14B-BB78-7F2A1A8270CC}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{FC32E4A8-5101-754C-BA01-BA4BA25B0A66}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -420,41 +420,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -792,7 +757,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1287,18 +1252,18 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="expression" dxfId="27" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
       <formula>$M2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="notBetween">
+    <cfRule type="cellIs" dxfId="21" priority="37" operator="notBetween">
       <formula>1000</formula>
       <formula>1000000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="expression" dxfId="25" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="35" stopIfTrue="1">
       <formula>$K2="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
